--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_18_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_18_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14370.09685010972</v>
+        <v>2859649.273171836</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14370.09685010972</v>
+        <v>2859649.273171836</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45584.85938498838</v>
+        <v>2808247.277811345</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45584.85938498838</v>
+        <v>2808247.277811345</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1343136394.905906</v>
+        <v>53464156.29408029</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13048.66469877695</v>
+        <v>1347691.384077221</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24474.14953948258</v>
+        <v>2418226.716113846</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35899.63438018818</v>
+        <v>3488762.048150473</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48557.45631096716</v>
+        <v>4524509.995487306</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>61215.27824174609</v>
+        <v>5560257.942824139</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>73873.10017252502</v>
+        <v>6596005.890160968</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>86530.92210330111</v>
+        <v>7631753.837497912</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99188.74403407726</v>
+        <v>8667501.784834854</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>111788.8415033922</v>
+        <v>9677602.938051796</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>124450.2335181602</v>
+        <v>10699901.70581437</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>137111.6255329283</v>
+        <v>11722200.47357691</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>149773.0175476981</v>
+        <v>12744499.24133929</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>162434.4095624662</v>
+        <v>13766798.00910185</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>175095.8015772358</v>
+        <v>14789096.77686424</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>187757.1935920069</v>
+        <v>15811395.54462646</v>
       </c>
     </row>
   </sheetData>
